--- a/imdb_top_rated.xlsx
+++ b/imdb_top_rated.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,770 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>release_year</t>
+  </si>
+  <si>
+    <t>imdb_rating</t>
+  </si>
+  <si>
+    <t>The Shawshank Redemption</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>The Godfather: Part II</t>
+  </si>
+  <si>
+    <t>The Dark Knight</t>
+  </si>
+  <si>
+    <t>12 Angry Men</t>
+  </si>
+  <si>
+    <t>Schindler's List</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Return of the King</t>
+  </si>
+  <si>
+    <t>Pulp Fiction</t>
+  </si>
+  <si>
+    <t>The Good, the Bad and the Ugly</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Two Towers</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode V - The Empire Strikes Back</t>
+  </si>
+  <si>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>Goodfellas</t>
+  </si>
+  <si>
+    <t>One Flew Over the Cuckoo's Nest</t>
+  </si>
+  <si>
+    <t>Seven Samurai</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>Life Is Beautiful</t>
+  </si>
+  <si>
+    <t>City of God</t>
+  </si>
+  <si>
+    <t>The Silence of the Lambs</t>
+  </si>
+  <si>
+    <t>It's a Wonderful Life</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode IV - A New Hope</t>
+  </si>
+  <si>
+    <t>Saving Private Ryan</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>The Green Mile</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>Parasite</t>
+  </si>
+  <si>
+    <t>Léon: The Professional</t>
+  </si>
+  <si>
+    <t>The Usual Suspects</t>
+  </si>
+  <si>
+    <t>Harakiri</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>The Pianist</t>
+  </si>
+  <si>
+    <t>Back to the Future</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgment Day</t>
+  </si>
+  <si>
+    <t>American History X</t>
+  </si>
+  <si>
+    <t>Modern Times</t>
+  </si>
+  <si>
+    <t>Psycho</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>City Lights</t>
+  </si>
+  <si>
+    <t>The Departed</t>
+  </si>
+  <si>
+    <t>The Intouchables</t>
+  </si>
+  <si>
+    <t>Whiplash</t>
+  </si>
+  <si>
+    <t>The Prestige</t>
+  </si>
+  <si>
+    <t>Grave of the Fireflies</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in the West</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>Cinema Paradiso</t>
+  </si>
+  <si>
+    <t>Rear Window</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t>Memento</t>
+  </si>
+  <si>
+    <t>The Great Dictator</t>
+  </si>
+  <si>
+    <t>Raiders of the Lost Ark</t>
+  </si>
+  <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>The Lives of Others</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Paths of Glory</t>
+  </si>
+  <si>
+    <t>WALL·E</t>
+  </si>
+  <si>
+    <t>The Shining</t>
+  </si>
+  <si>
+    <t>Avengers: Infinity War</t>
+  </si>
+  <si>
+    <t>Sunset Blvd.</t>
+  </si>
+  <si>
+    <t>Witness for the Prosecution</t>
+  </si>
+  <si>
+    <t>Oldboy</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Spider-Man: Into the Spider-Verse</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
+  </si>
+  <si>
+    <t>The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in America</t>
+  </si>
+  <si>
+    <t>Aliens</t>
+  </si>
+  <si>
+    <t>Your Name.</t>
+  </si>
+  <si>
+    <t>Avengers: Endgame</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>American Beauty</t>
+  </si>
+  <si>
+    <t>Braveheart</t>
+  </si>
+  <si>
+    <t>Das Boot</t>
+  </si>
+  <si>
+    <t>3 Idiots</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>High and Low</t>
+  </si>
+  <si>
+    <t>Capernaum</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t>Inglourious Basterds</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode VI - Return of the Jedi</t>
+  </si>
+  <si>
+    <t>Like Stars on Earth</t>
+  </si>
+  <si>
+    <t>Good Will Hunting</t>
+  </si>
+  <si>
+    <t>Reservoir Dogs</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey</t>
+  </si>
+  <si>
+    <t>Requiem for a Dream</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Eternal Sunshine of the Spotless Mind</t>
+  </si>
+  <si>
+    <t>The Hunt</t>
+  </si>
+  <si>
+    <t>Dangal</t>
+  </si>
+  <si>
+    <t>Citizen Kane</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>Full Metal Jacket</t>
+  </si>
+  <si>
+    <t>Bicycle Thieves</t>
+  </si>
+  <si>
+    <t>Singin' in the Rain</t>
+  </si>
+  <si>
+    <t>The Kid</t>
+  </si>
+  <si>
+    <t>North by Northwest</t>
+  </si>
+  <si>
+    <t>A Clockwork Orange</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>Taxi Driver</t>
+  </si>
+  <si>
+    <t>Ikiru</t>
+  </si>
+  <si>
+    <t>Lawrence of Arabia</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>The Sting</t>
+  </si>
+  <si>
+    <t>A Separation</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Come and See</t>
+  </si>
+  <si>
+    <t>Incendies</t>
+  </si>
+  <si>
+    <t>For a Few Dollars More</t>
+  </si>
+  <si>
+    <t>The Apartment</t>
+  </si>
+  <si>
+    <t>Double Indemnity</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>L.A. Confidential</t>
+  </si>
+  <si>
+    <t>Die Hard</t>
+  </si>
+  <si>
+    <t>Monty Python and the Holy Grail</t>
+  </si>
+  <si>
+    <t>Rashomon</t>
+  </si>
+  <si>
+    <t>Yojimbo</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <t>Green Book</t>
+  </si>
+  <si>
+    <t>Downfall</t>
+  </si>
+  <si>
+    <t>Children of Heaven</t>
+  </si>
+  <si>
+    <t>Unforgiven</t>
+  </si>
+  <si>
+    <t>Ran</t>
+  </si>
+  <si>
+    <t>Some Like It Hot</t>
+  </si>
+  <si>
+    <t>Howl's Moving Castle</t>
+  </si>
+  <si>
+    <t>A Beautiful Mind</t>
+  </si>
+  <si>
+    <t>All About Eve</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>The Great Escape</t>
+  </si>
+  <si>
+    <t>The Wolf of Wall Street</t>
+  </si>
+  <si>
+    <t>Pan's Labyrinth</t>
+  </si>
+  <si>
+    <t>The Secret in Their Eyes</t>
+  </si>
+  <si>
+    <t>Lock, Stock and Two Smoking Barrels</t>
+  </si>
+  <si>
+    <t>There Will Be Blood</t>
+  </si>
+  <si>
+    <t>Raging Bull</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Judgment at Nuremberg</t>
+  </si>
+  <si>
+    <t>The Treasure of the Sierra Madre</t>
+  </si>
+  <si>
+    <t>Dial M for Murder</t>
+  </si>
+  <si>
+    <t>Three Billboards Outside Ebbing, Missouri</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Chinatown</t>
+  </si>
+  <si>
+    <t>The Gold Rush</t>
+  </si>
+  <si>
+    <t>Shutter Island</t>
+  </si>
+  <si>
+    <t>My Father and My Son</t>
+  </si>
+  <si>
+    <t>No Country for Old Men</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>The Seventh Seal</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>The Elephant Man</t>
+  </si>
+  <si>
+    <t>The Thing</t>
+  </si>
+  <si>
+    <t>The Sixth Sense</t>
+  </si>
+  <si>
+    <t>Trainspotting</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Gone with the Wind</t>
+  </si>
+  <si>
+    <t>The Truman Show</t>
+  </si>
+  <si>
+    <t>Finding Nemo</t>
+  </si>
+  <si>
+    <t>Wild Strawberries</t>
+  </si>
+  <si>
+    <t>Blade Runner</t>
+  </si>
+  <si>
+    <t>Stalker</t>
+  </si>
+  <si>
+    <t>Kill Bill: Vol. 1</t>
+  </si>
+  <si>
+    <t>The Bridge on the River Kwai</t>
+  </si>
+  <si>
+    <t>Memories of Murder</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Fargo</t>
+  </si>
+  <si>
+    <t>Autumn Sonata</t>
+  </si>
+  <si>
+    <t>Tokyo Story</t>
+  </si>
+  <si>
+    <t>Gran Torino</t>
+  </si>
+  <si>
+    <t>The Third Man</t>
+  </si>
+  <si>
+    <t>On the Waterfront</t>
+  </si>
+  <si>
+    <t>Wild Tales</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>The Deer Hunter</t>
+  </si>
+  <si>
+    <t>In the Name of the Father</t>
+  </si>
+  <si>
+    <t>Mary and Max</t>
+  </si>
+  <si>
+    <t>Gone Girl</t>
+  </si>
+  <si>
+    <t>The Grand Budapest Hotel</t>
+  </si>
+  <si>
+    <t>Hacksaw Ridge</t>
+  </si>
+  <si>
+    <t>Before Sunrise</t>
+  </si>
+  <si>
+    <t>Catch Me If You Can</t>
+  </si>
+  <si>
+    <t>Andhadhun</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>The Big Lebowski</t>
+  </si>
+  <si>
+    <t>Prisoners</t>
+  </si>
+  <si>
+    <t>To Be or Not to Be</t>
+  </si>
+  <si>
+    <t>Sherlock Jr.</t>
+  </si>
+  <si>
+    <t>The Bandit</t>
+  </si>
+  <si>
+    <t>The General</t>
+  </si>
+  <si>
+    <t>How to Train Your Dragon</t>
+  </si>
+  <si>
+    <t>Ford v Ferrari</t>
+  </si>
+  <si>
+    <t>12 Years a Slave</t>
+  </si>
+  <si>
+    <t>Mr. Smith Goes to Washington</t>
+  </si>
+  <si>
+    <t>Vikram Vedha</t>
+  </si>
+  <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>Million Dollar Baby</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Stand by Me</t>
+  </si>
+  <si>
+    <t>Dead Poets Society</t>
+  </si>
+  <si>
+    <t>Cool Hand Luke</t>
+  </si>
+  <si>
+    <t>Ben-Hur</t>
+  </si>
+  <si>
+    <t>Hachi: A Dog's Tale</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Deathly Hallows: Part 2</t>
+  </si>
+  <si>
+    <t>Platoon</t>
+  </si>
+  <si>
+    <t>Into the Wild</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>The Wages of Fear</t>
+  </si>
+  <si>
+    <t>The Handmaiden</t>
+  </si>
+  <si>
+    <t>Monty Python's Life of Brian</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>The Passion of Joan of Arc</t>
+  </si>
+  <si>
+    <t>The 400 Blows</t>
+  </si>
+  <si>
+    <t>Spotlight</t>
+  </si>
+  <si>
+    <t>Andrei Rublev</t>
+  </si>
+  <si>
+    <t>Hotel Rwanda</t>
+  </si>
+  <si>
+    <t>La Haine</t>
+  </si>
+  <si>
+    <t>Amores Perros</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rififi</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Gangs of Wasseypur</t>
+  </si>
+  <si>
+    <t>Monsters, Inc.</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Rang De Basanti</t>
+  </si>
+  <si>
+    <t>Before Sunset</t>
+  </si>
+  <si>
+    <t>In the Mood for Love</t>
+  </si>
+  <si>
+    <t>Portrait of a Lady on Fire</t>
+  </si>
+  <si>
+    <t>Paris, Texas</t>
+  </si>
+  <si>
+    <t>It Happened One Night</t>
+  </si>
+  <si>
+    <t>Drishyam</t>
+  </si>
+  <si>
+    <t>The Invisible Guest</t>
+  </si>
+  <si>
+    <t>The Help</t>
+  </si>
+  <si>
+    <t>The Princess Bride</t>
+  </si>
+  <si>
+    <t>The Battle of Algiers</t>
+  </si>
+  <si>
+    <t>The Circus</t>
+  </si>
+  <si>
+    <t>Tangerines</t>
+  </si>
+  <si>
+    <t>The Terminator</t>
+  </si>
+  <si>
+    <t>A Silent Voice: The Movie</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,18 +818,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -366,28 +1130,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>release_year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>imdb_rating</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The Shawshank Redemption</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1994</v>
@@ -396,11 +1152,9 @@
         <v>9.199999999999999</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>The Godfather</t>
-        </is>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1972</v>
@@ -409,11 +1163,9 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>The Godfather: Part II</t>
-        </is>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1974</v>
@@ -422,11 +1174,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>The Dark Knight</t>
-        </is>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>2008</v>
@@ -435,11 +1185,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12 Angry Men</t>
-        </is>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>1957</v>
@@ -448,11 +1196,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Schindler's List</t>
-        </is>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>1993</v>
@@ -461,11 +1207,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Return of the King</t>
-        </is>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>2003</v>
@@ -474,11 +1218,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pulp Fiction</t>
-        </is>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>1994</v>
@@ -487,11 +1229,9 @@
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>The Good, the Bad and the Ugly</t>
-        </is>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>1966</v>
@@ -500,11 +1240,9 @@
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Fellowship of the Ring</t>
-        </is>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>2001</v>
@@ -513,11 +1251,9 @@
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fight Club</t>
-        </is>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>1999</v>
@@ -526,11 +1262,9 @@
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Forrest Gump</t>
-        </is>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13" t="n">
         <v>1994</v>
@@ -539,11 +1273,9 @@
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Inception</t>
-        </is>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14" t="n">
         <v>2010</v>
@@ -552,11 +1284,9 @@
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Two Towers</t>
-        </is>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>2002</v>
@@ -565,11 +1295,9 @@
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Star Wars: Episode V - The Empire Strikes Back</t>
-        </is>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>1980</v>
@@ -578,11 +1306,9 @@
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>The Matrix</t>
-        </is>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>1999</v>
@@ -591,11 +1317,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Goodfellas</t>
-        </is>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>1990</v>
@@ -604,11 +1328,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>One Flew Over the Cuckoo's Nest</t>
-        </is>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>1975</v>
@@ -617,11 +1339,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Seven Samurai</t>
-        </is>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20" t="n">
         <v>1954</v>
@@ -630,11 +1350,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Se7en</t>
-        </is>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>1995</v>
@@ -643,11 +1361,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Life Is Beautiful</t>
-        </is>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>1997</v>
@@ -656,11 +1372,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>City of God</t>
-        </is>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>2002</v>
@@ -669,11 +1383,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Silence of the Lambs</t>
-        </is>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>1991</v>
@@ -682,11 +1394,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>It's a Wonderful Life</t>
-        </is>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>1946</v>
@@ -695,11 +1405,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Star Wars: Episode IV - A New Hope</t>
-        </is>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>1977</v>
@@ -708,11 +1416,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Saving Private Ryan</t>
-        </is>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>1998</v>
@@ -721,11 +1427,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Spirited Away</t>
-        </is>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>2001</v>
@@ -734,11 +1438,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>The Green Mile</t>
-        </is>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>1999</v>
@@ -747,37 +1449,31 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Parasite</t>
-        </is>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C30" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Interstellar</t>
-        </is>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C31" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Léon: The Professional</t>
-        </is>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
       <c r="B32" t="n">
         <v>1994</v>
@@ -786,11 +1482,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>The Usual Suspects</t>
-        </is>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
       <c r="B33" t="n">
         <v>1995</v>
@@ -799,11 +1493,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Harakiri</t>
-        </is>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
       </c>
       <c r="B34" t="n">
         <v>1962</v>
@@ -812,11 +1504,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>The Lion King</t>
-        </is>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35" t="n">
         <v>1994</v>
@@ -825,37 +1515,31 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Back to the Future</t>
-        </is>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>1985</v>
+        <v>2002</v>
       </c>
       <c r="C36" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The Pianist</t>
-        </is>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Terminator 2: Judgment Day</t>
-        </is>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" t="n">
         <v>1991</v>
@@ -864,11 +1548,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>American History X</t>
-        </is>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
       </c>
       <c r="B39" t="n">
         <v>1998</v>
@@ -877,11 +1559,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Modern Times</t>
-        </is>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
       </c>
       <c r="B40" t="n">
         <v>1936</v>
@@ -890,11 +1570,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Psycho</t>
-        </is>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
       <c r="B41" t="n">
         <v>1960</v>
@@ -903,11 +1581,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Gladiator</t>
-        </is>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
       </c>
       <c r="B42" t="n">
         <v>2000</v>
@@ -916,11 +1592,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>City Lights</t>
-        </is>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
       </c>
       <c r="B43" t="n">
         <v>1931</v>
@@ -929,11 +1603,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>The Departed</t>
-        </is>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
       </c>
       <c r="B44" t="n">
         <v>2006</v>
@@ -942,11 +1614,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>The Intouchables</t>
-        </is>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
       </c>
       <c r="B45" t="n">
         <v>2011</v>
@@ -955,11 +1625,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Whiplash</t>
-        </is>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
       </c>
       <c r="B46" t="n">
         <v>2014</v>
@@ -968,63 +1636,53 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="C47" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>The Prestige</t>
-        </is>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="C48" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Grave of the Fireflies</t>
-        </is>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>1988</v>
+        <v>1968</v>
       </c>
       <c r="C49" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Once Upon a Time in the West</t>
-        </is>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>1968</v>
+        <v>2020</v>
       </c>
       <c r="C50" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Casablanca</t>
-        </is>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
       </c>
       <c r="B51" t="n">
         <v>1942</v>
@@ -1033,11 +1691,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Cinema Paradiso</t>
-        </is>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
       </c>
       <c r="B52" t="n">
         <v>1988</v>
@@ -1046,11 +1702,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Rear Window</t>
-        </is>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
       </c>
       <c r="B53" t="n">
         <v>1954</v>
@@ -1059,11 +1713,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Alien</t>
-        </is>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
       </c>
       <c r="B54" t="n">
         <v>1979</v>
@@ -1072,11 +1724,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Apocalypse Now</t>
-        </is>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
       </c>
       <c r="B55" t="n">
         <v>1979</v>
@@ -1085,11 +1735,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Memento</t>
-        </is>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
       </c>
       <c r="B56" t="n">
         <v>2000</v>
@@ -1098,11 +1746,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>The Great Dictator</t>
-        </is>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
       </c>
       <c r="B57" t="n">
         <v>1940</v>
@@ -1111,11 +1757,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Raiders of the Lost Ark</t>
-        </is>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
       </c>
       <c r="B58" t="n">
         <v>1981</v>
@@ -1124,11 +1768,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Django Unchained</t>
-        </is>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="B59" t="n">
         <v>2012</v>
@@ -1137,11 +1779,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>The Lives of Others</t>
-        </is>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
       </c>
       <c r="B60" t="n">
         <v>2006</v>
@@ -1150,11 +1790,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Joker</t>
-        </is>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
       </c>
       <c r="B61" t="n">
         <v>2019</v>
@@ -1163,11 +1801,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Paths of Glory</t>
-        </is>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
       </c>
       <c r="B62" t="n">
         <v>1957</v>
@@ -1176,11 +1812,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>WALL·E</t>
-        </is>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>2008</v>
@@ -1189,11 +1823,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>The Shining</t>
-        </is>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
       </c>
       <c r="B64" t="n">
         <v>1980</v>
@@ -1202,11 +1834,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Avengers: Infinity War</t>
-        </is>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
       </c>
       <c r="B65" t="n">
         <v>2018</v>
@@ -1215,11 +1845,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Sunset Blvd.</t>
-        </is>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
       </c>
       <c r="B66" t="n">
         <v>1950</v>
@@ -1228,11 +1856,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Witness for the Prosecution</t>
-        </is>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
       </c>
       <c r="B67" t="n">
         <v>1957</v>
@@ -1241,50 +1867,42 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
-        </is>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="C68" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Oldboy</t>
-        </is>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C69" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Princess Mononoke</t>
-        </is>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="C70" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
-        </is>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
       </c>
       <c r="B71" t="n">
         <v>1964</v>
@@ -1293,11 +1911,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>The Dark Knight Rises</t>
-        </is>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
       </c>
       <c r="B72" t="n">
         <v>2012</v>
@@ -1306,11 +1922,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Once Upon a Time in America</t>
-        </is>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
       </c>
       <c r="B73" t="n">
         <v>1984</v>
@@ -1319,11 +1933,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Aliens</t>
-        </is>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
       </c>
       <c r="B74" t="n">
         <v>1986</v>
@@ -1332,11 +1944,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Your Name.</t>
-        </is>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
       </c>
       <c r="B75" t="n">
         <v>2016</v>
@@ -1345,11 +1955,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Avengers: Endgame</t>
-        </is>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
       </c>
       <c r="B76" t="n">
         <v>2019</v>
@@ -1358,11 +1966,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
       </c>
       <c r="B77" t="n">
         <v>2017</v>
@@ -1371,11 +1977,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>American Beauty</t>
-        </is>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
       </c>
       <c r="B78" t="n">
         <v>1999</v>
@@ -1384,11 +1988,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Braveheart</t>
-        </is>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
       </c>
       <c r="B79" t="n">
         <v>1995</v>
@@ -1397,37 +1999,31 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>3 Idiots</t>
-        </is>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>2009</v>
+        <v>1981</v>
       </c>
       <c r="C80" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Das Boot</t>
-        </is>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>1981</v>
+        <v>2009</v>
       </c>
       <c r="C81" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Toy Story</t>
-        </is>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
       </c>
       <c r="B82" t="n">
         <v>1995</v>
@@ -1436,11 +2032,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>High and Low</t>
-        </is>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
       </c>
       <c r="B83" t="n">
         <v>1963</v>
@@ -1449,102 +2043,86 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Amadeus</t>
-        </is>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>1984</v>
+        <v>2018</v>
       </c>
       <c r="C84" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Capernaum</t>
-        </is>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="C85" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>心中的小星星</t>
-        </is>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C86" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Inglourious Basterds</t>
-        </is>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="C87" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Star Wars: Episode VI - Return of the Jedi</t>
-        </is>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>1983</v>
+        <v>2007</v>
       </c>
       <c r="C88" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Reservoir Dogs</t>
-        </is>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="C89" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Good Will Hunting</t>
-        </is>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C90" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2001: A Space Odyssey</t>
-        </is>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
       </c>
       <c r="B91" t="n">
         <v>1968</v>
@@ -1553,11 +2131,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Requiem for a Dream</t>
-        </is>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
       </c>
       <c r="B92" t="n">
         <v>2000</v>
@@ -1566,11 +2142,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Vertigo</t>
-        </is>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
       </c>
       <c r="B93" t="n">
         <v>1958</v>
@@ -1579,11 +2153,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
       </c>
       <c r="B94" t="n">
         <v>1931</v>
@@ -1592,11 +2164,9 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Eternal Sunshine of the Spotless Mind</t>
-        </is>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
       </c>
       <c r="B95" t="n">
         <v>2004</v>
@@ -1605,37 +2175,31 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Dangal</t>
-        </is>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C96" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>The Hunt</t>
-        </is>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C97" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Citizen Kane</t>
-        </is>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
       </c>
       <c r="B98" t="n">
         <v>1941</v>
@@ -1644,24 +2208,20 @@
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1917</t>
-        </is>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
       </c>
       <c r="B99" t="n">
         <v>2019</v>
       </c>
       <c r="C99" t="n">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Full Metal Jacket</t>
-        </is>
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
       </c>
       <c r="B100" t="n">
         <v>1987</v>
@@ -1670,11 +2230,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Bicycle Thieves</t>
-        </is>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
       </c>
       <c r="B101" t="n">
         <v>1948</v>
@@ -1683,63 +2241,53 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>The Kid</t>
-        </is>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
       </c>
       <c r="B102" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C102" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n">
         <v>1921</v>
       </c>
-      <c r="C102" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Singin' in the Rain</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1952</v>
-      </c>
       <c r="C103" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>A Clockwork Orange</t>
-        </is>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
       </c>
       <c r="B104" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="n">
         <v>1971</v>
       </c>
-      <c r="C104" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>North by Northwest</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1959</v>
-      </c>
       <c r="C105" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Snatch</t>
-        </is>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
       </c>
       <c r="B106" t="n">
         <v>2000</v>
@@ -1748,11 +2296,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Scarface</t>
-        </is>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
       </c>
       <c r="B107" t="n">
         <v>1983</v>
@@ -1761,11 +2307,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Taxi Driver</t>
-        </is>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
       </c>
       <c r="B108" t="n">
         <v>1976</v>
@@ -1774,11 +2318,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Ikiru</t>
-        </is>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
       </c>
       <c r="B109" t="n">
         <v>1952</v>
@@ -1787,11 +2329,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Lawrence of Arabia</t>
-        </is>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
       </c>
       <c r="B110" t="n">
         <v>1962</v>
@@ -1800,11 +2340,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Amélie</t>
-        </is>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
       </c>
       <c r="B111" t="n">
         <v>2001</v>
@@ -1813,11 +2351,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Toy Story 3</t>
-        </is>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
       </c>
       <c r="B112" t="n">
         <v>2010</v>
@@ -1826,11 +2362,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>The Sting</t>
-        </is>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
       </c>
       <c r="B113" t="n">
         <v>1973</v>
@@ -1839,76 +2373,64 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Metropolis</t>
-        </is>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
       </c>
       <c r="B114" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="n">
         <v>1927</v>
       </c>
-      <c r="C114" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>A Separation</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2011</v>
-      </c>
       <c r="C115" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Incendies</t>
-        </is>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
       </c>
       <c r="B116" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="n">
         <v>2010</v>
       </c>
-      <c r="C116" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>For a Few Dollars More</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
+      <c r="C117" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="n">
         <v>1965</v>
       </c>
-      <c r="C117" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Come and See</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1985</v>
-      </c>
       <c r="C118" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>The Apartment</t>
-        </is>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
       </c>
       <c r="B119" t="n">
         <v>1960</v>
@@ -1917,11 +2439,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Double Indemnity</t>
-        </is>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
       </c>
       <c r="B120" t="n">
         <v>1944</v>
@@ -1930,11 +2450,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>To Kill a Mockingbird</t>
-        </is>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
       </c>
       <c r="B121" t="n">
         <v>1962</v>
@@ -1943,11 +2461,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Up</t>
-        </is>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
       </c>
       <c r="B122" t="n">
         <v>2009</v>
@@ -1956,11 +2472,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Indiana Jones and the Last Crusade</t>
-        </is>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
       </c>
       <c r="B123" t="n">
         <v>1989</v>
@@ -1969,37 +2483,31 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>L.A. Confidential</t>
-        </is>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
       </c>
       <c r="B124" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="n">
         <v>1997</v>
       </c>
-      <c r="C124" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Heat</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>1995</v>
-      </c>
       <c r="C125" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Die Hard</t>
-        </is>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
       </c>
       <c r="B126" t="n">
         <v>1988</v>
@@ -2008,11 +2516,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Monty Python and the Holy Grail</t>
-        </is>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
       </c>
       <c r="B127" t="n">
         <v>1975</v>
@@ -2021,11 +2527,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Rashomon</t>
-        </is>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
       </c>
       <c r="B128" t="n">
         <v>1950</v>
@@ -2034,11 +2538,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Yojimbo</t>
-        </is>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
       </c>
       <c r="B129" t="n">
         <v>1961</v>
@@ -2047,11 +2549,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Batman Begins</t>
-        </is>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
       </c>
       <c r="B130" t="n">
         <v>2005</v>
@@ -2060,11 +2560,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Green Book</t>
-        </is>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
       </c>
       <c r="B131" t="n">
         <v>2018</v>
@@ -2073,11 +2571,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Downfall</t>
-        </is>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
       </c>
       <c r="B132" t="n">
         <v>2004</v>
@@ -2086,11 +2582,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Children of Heaven</t>
-        </is>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
       </c>
       <c r="B133" t="n">
         <v>1997</v>
@@ -2099,11 +2593,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Unforgiven</t>
-        </is>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
       </c>
       <c r="B134" t="n">
         <v>1992</v>
@@ -2112,11 +2604,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Ran</t>
-        </is>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
       </c>
       <c r="B135" t="n">
         <v>1985</v>
@@ -2125,11 +2615,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Some Like It Hot</t>
-        </is>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
       </c>
       <c r="B136" t="n">
         <v>1959</v>
@@ -2138,11 +2626,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Howl's Moving Castle</t>
-        </is>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
       </c>
       <c r="B137" t="n">
         <v>2004</v>
@@ -2151,11 +2637,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>A Beautiful Mind</t>
-        </is>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
       </c>
       <c r="B138" t="n">
         <v>2001</v>
@@ -2164,11 +2648,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>All About Eve</t>
-        </is>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
       </c>
       <c r="B139" t="n">
         <v>1950</v>
@@ -2177,11 +2659,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Casino</t>
-        </is>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
       </c>
       <c r="B140" t="n">
         <v>1995</v>
@@ -2190,11 +2670,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>The Great Escape</t>
-        </is>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
       </c>
       <c r="B141" t="n">
         <v>1963</v>
@@ -2203,11 +2681,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>The Wolf of Wall Street</t>
-        </is>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
       </c>
       <c r="B142" t="n">
         <v>2013</v>
@@ -2216,11 +2692,9 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Pan's Labyrinth</t>
-        </is>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
       </c>
       <c r="B143" t="n">
         <v>2006</v>
@@ -2229,50 +2703,42 @@
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Anand</t>
-        </is>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>1971</v>
+        <v>2009</v>
       </c>
       <c r="C144" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>The Secret in Their Eyes</t>
-        </is>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C145" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Lock, Stock and Two Smoking Barrels</t>
-        </is>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="C146" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Raging Bull</t>
-        </is>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
       </c>
       <c r="B147" t="n">
         <v>1980</v>
@@ -2281,11 +2747,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>My Neighbor Totoro</t>
-        </is>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
       </c>
       <c r="B148" t="n">
         <v>1988</v>
@@ -2294,50 +2758,42 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>There Will Be Blood</t>
-        </is>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>2007</v>
+        <v>1961</v>
       </c>
       <c r="C149" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Judgment at Nuremberg</t>
-        </is>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>1961</v>
+        <v>1948</v>
       </c>
       <c r="C150" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>The Treasure of the Sierra Madre</t>
-        </is>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>1948</v>
+        <v>1954</v>
       </c>
       <c r="C151" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Three Billboards Outside Ebbing, Missouri</t>
-        </is>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
       </c>
       <c r="B152" t="n">
         <v>2017</v>
@@ -2346,24 +2802,20 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Dial M for Murder</t>
-        </is>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>1954</v>
+        <v>1971</v>
       </c>
       <c r="C153" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Chinatown</t>
-        </is>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
       </c>
       <c r="B154" t="n">
         <v>1974</v>
@@ -2372,11 +2824,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>The Gold Rush</t>
-        </is>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
       </c>
       <c r="B155" t="n">
         <v>1925</v>
@@ -2385,37 +2835,31 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>My Father and My Son</t>
-        </is>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
       </c>
       <c r="B156" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="n">
         <v>2005</v>
       </c>
-      <c r="C156" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Shutter Island</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2010</v>
-      </c>
       <c r="C157" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>No Country for Old Men</t>
-        </is>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
       </c>
       <c r="B158" t="n">
         <v>2007</v>
@@ -2424,11 +2868,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>V for Vendetta</t>
-        </is>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
       </c>
       <c r="B159" t="n">
         <v>2005</v>
@@ -2437,11 +2879,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>The Seventh Seal</t>
-        </is>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
       </c>
       <c r="B160" t="n">
         <v>1957</v>
@@ -2450,11 +2890,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Inside Out</t>
-        </is>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
       </c>
       <c r="B161" t="n">
         <v>2015</v>
@@ -2463,11 +2901,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Warrior</t>
-        </is>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
       </c>
       <c r="B162" t="n">
         <v>2011</v>
@@ -2476,115 +2912,97 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Vikram Vedha</t>
-        </is>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="C163" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>The Elephant Man</t>
-        </is>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="C164" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>The Thing</t>
-        </is>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="C165" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>The Sixth Sense</t>
-        </is>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C166" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Trainspotting</t>
-        </is>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C167" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Jurassic Park</t>
-        </is>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>1993</v>
+        <v>1939</v>
       </c>
       <c r="C168" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Gone with the Wind</t>
-        </is>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>1939</v>
+        <v>1998</v>
       </c>
       <c r="C169" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>The Truman Show</t>
-        </is>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="C170" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Wild Strawberries</t>
-        </is>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
       </c>
       <c r="B171" t="n">
         <v>1957</v>
@@ -2593,89 +3011,75 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Finding Nemo</t>
-        </is>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
       </c>
       <c r="B172" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="n">
         <v>2003</v>
       </c>
-      <c r="C172" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Blade Runner</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Stalker</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>1979</v>
-      </c>
       <c r="C174" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Kill Bill: Vol. 1</t>
-        </is>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
       </c>
       <c r="B175" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="n">
         <v>2003</v>
       </c>
-      <c r="C175" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
+      <c r="C176" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="n">
         <v>2015</v>
       </c>
-      <c r="C176" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>The Bridge on the River Kwai</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>1957</v>
-      </c>
       <c r="C177" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Fargo</t>
-        </is>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
       </c>
       <c r="B178" t="n">
         <v>1996</v>
@@ -2684,24 +3088,20 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Memories of Murder</t>
-        </is>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>2003</v>
+        <v>1978</v>
       </c>
       <c r="C179" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Tokyo Story</t>
-        </is>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
       </c>
       <c r="B180" t="n">
         <v>1953</v>
@@ -2710,37 +3110,31 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>The Third Man</t>
-        </is>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
       </c>
       <c r="B181" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="n">
         <v>1949</v>
       </c>
-      <c r="C181" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Gran Torino</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2008</v>
-      </c>
       <c r="C182" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>On the Waterfront</t>
-        </is>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
       </c>
       <c r="B183" t="n">
         <v>1954</v>
@@ -2749,11 +3143,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Wild Tales</t>
-        </is>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
       </c>
       <c r="B184" t="n">
         <v>2014</v>
@@ -2762,37 +3154,31 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>The Deer Hunter</t>
-        </is>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
       </c>
       <c r="B185" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="n">
         <v>1978</v>
       </c>
-      <c r="C185" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Klaus</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2019</v>
-      </c>
       <c r="C186" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>In the Name of the Father</t>
-        </is>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
       </c>
       <c r="B187" t="n">
         <v>1993</v>
@@ -2801,11 +3187,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Mary and Max</t>
-        </is>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
       </c>
       <c r="B188" t="n">
         <v>2009</v>
@@ -2814,11 +3198,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Gone Girl</t>
-        </is>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
       </c>
       <c r="B189" t="n">
         <v>2014</v>
@@ -2827,11 +3209,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>The Grand Budapest Hotel</t>
-        </is>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
       </c>
       <c r="B190" t="n">
         <v>2014</v>
@@ -2840,11 +3220,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Hacksaw Ridge</t>
-        </is>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
       </c>
       <c r="B191" t="n">
         <v>2016</v>
@@ -2853,128 +3231,108 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Andhadhun</t>
-        </is>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
       </c>
       <c r="B192" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="n">
         <v>2018</v>
       </c>
-      <c r="C192" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Before Sunrise</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C193" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Catch Me If You Can</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2002</v>
-      </c>
       <c r="C194" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>The Big Lebowski</t>
-        </is>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
       </c>
       <c r="B195" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="n">
         <v>1998</v>
       </c>
-      <c r="C195" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Persona</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>1966</v>
-      </c>
       <c r="C196" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>To Be or Not to Be</t>
-        </is>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
       </c>
       <c r="B197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="n">
         <v>1942</v>
       </c>
-      <c r="C197" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Prisoners</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2013</v>
-      </c>
       <c r="C198" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>The Bandit</t>
-        </is>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
       </c>
       <c r="B199" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="n">
         <v>1996</v>
       </c>
-      <c r="C199" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Sherlock Jr.</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>1924</v>
-      </c>
       <c r="C200" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>The General</t>
-        </is>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
       </c>
       <c r="B201" t="n">
         <v>1926</v>
@@ -2983,11 +3341,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>How to Train Your Dragon</t>
-        </is>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
       </c>
       <c r="B202" t="n">
         <v>2010</v>
@@ -2996,11 +3352,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Ford v Ferrari</t>
-        </is>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
       </c>
       <c r="B203" t="n">
         <v>2019</v>
@@ -3009,89 +3363,75 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Mr. Smith Goes to Washington</t>
-        </is>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
       </c>
       <c r="B204" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="n">
         <v>1939</v>
       </c>
-      <c r="C204" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>12 Years a Slave</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2013</v>
-      </c>
       <c r="C205" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Barry Lyndon</t>
-        </is>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
       </c>
       <c r="B206" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C206" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="n">
         <v>1975</v>
       </c>
-      <c r="C206" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Mad Max: Fury Road</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
+      <c r="C207" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="n">
         <v>2015</v>
       </c>
-      <c r="C207" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Million Dollar Baby</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
+      <c r="C208" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="n">
         <v>2004</v>
       </c>
-      <c r="C208" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Stand by Me</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>1986</v>
-      </c>
       <c r="C209" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Network</t>
-        </is>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
       </c>
       <c r="B210" t="n">
         <v>1976</v>
@@ -3100,24 +3440,20 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Cool Hand Luke</t>
-        </is>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>1967</v>
+        <v>1986</v>
       </c>
       <c r="C211" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Dead Poets Society</t>
-        </is>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
       </c>
       <c r="B212" t="n">
         <v>1989</v>
@@ -3126,349 +3462,295 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Ben-Hur</t>
-        </is>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
       </c>
       <c r="B213" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="n">
         <v>1959</v>
       </c>
-      <c r="C213" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Hachi: A Dog's Tale</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
+      <c r="C214" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="n">
         <v>2009</v>
       </c>
-      <c r="C214" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Harry Potter and the Deathly Hallows: Part 2</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
+      <c r="C215" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="n">
         <v>2011</v>
       </c>
-      <c r="C215" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Platoon</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
+      <c r="C216" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="n">
         <v>1986</v>
       </c>
-      <c r="C216" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Into the Wild</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
+      <c r="C217" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="n">
         <v>2007</v>
       </c>
-      <c r="C217" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Logan</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
+      <c r="C218" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="n">
         <v>2017</v>
       </c>
-      <c r="C218" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>The Wages of Fear</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
+      <c r="C219" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="n">
         <v>1953</v>
-      </c>
-      <c r="C219" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Monty Python's Life of Brian</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>1979</v>
       </c>
       <c r="C220" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Rush</t>
-        </is>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
       </c>
       <c r="B221" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C221" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>The Handmaiden</t>
-        </is>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>2016</v>
+        <v>1979</v>
       </c>
       <c r="C222" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>The Passion of Joan of Arc</t>
-        </is>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
       </c>
       <c r="B223" t="n">
-        <v>1928</v>
+        <v>2013</v>
       </c>
       <c r="C223" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>The 400 Blows</t>
-        </is>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>1959</v>
+        <v>1928</v>
       </c>
       <c r="C224" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Andrei Rublev</t>
-        </is>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="C225" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Hotel Rwanda</t>
-        </is>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="C226" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Spotlight</t>
-        </is>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
       </c>
       <c r="B227" t="n">
-        <v>2015</v>
+        <v>1966</v>
       </c>
       <c r="C227" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Amores Perros</t>
-        </is>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C228" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Rififi</t>
-        </is>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
       </c>
       <c r="B229" t="n">
-        <v>1955</v>
+        <v>1995</v>
       </c>
       <c r="C229" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>La Haine</t>
-        </is>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
       </c>
       <c r="B230" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C230" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Nausicaä of the Valley of the Wind</t>
-        </is>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="C231" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Rocky</t>
-        </is>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
       </c>
       <c r="B232" t="n">
-        <v>1976</v>
+        <v>1955</v>
       </c>
       <c r="C232" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Gangs of Wasseypur</t>
-        </is>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
       </c>
       <c r="B233" t="n">
-        <v>2012</v>
+        <v>1984</v>
       </c>
       <c r="C233" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Monsters, Inc.</t>
-        </is>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
       </c>
       <c r="B234" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="C234" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Rebecca</t>
-        </is>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>1940</v>
+        <v>2001</v>
       </c>
       <c r="C235" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>芭薩提的顏色</t>
-        </is>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>2006</v>
+        <v>1940</v>
       </c>
       <c r="C236" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Before Sunset</t>
-        </is>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C237" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Portrait of a Lady on Fire</t>
-        </is>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
       </c>
       <c r="B238" t="n">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="C238" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>In the Mood for Love</t>
-        </is>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
       </c>
       <c r="B239" t="n">
         <v>2000</v>
@@ -3477,102 +3759,86 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Paris, Texas</t>
-        </is>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
       </c>
       <c r="B240" t="n">
-        <v>1984</v>
+        <v>2019</v>
       </c>
       <c r="C240" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>It Happened One Night</t>
-        </is>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>1934</v>
+        <v>1984</v>
       </c>
       <c r="C241" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Drishyam</t>
-        </is>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
       </c>
       <c r="B242" t="n">
-        <v>2015</v>
+        <v>1934</v>
       </c>
       <c r="C242" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>The Invisible Guest</t>
-        </is>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C243" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>The Help</t>
-        </is>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C244" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>The Princess Bride</t>
-        </is>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>1987</v>
+        <v>2011</v>
       </c>
       <c r="C245" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>The Circus</t>
-        </is>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>1928</v>
+        <v>1987</v>
       </c>
       <c r="C246" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>The Battle of Algiers</t>
-        </is>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
       </c>
       <c r="B247" t="n">
         <v>1966</v>
@@ -3581,59 +3847,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>The Terminator</t>
-        </is>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
       </c>
       <c r="B248" t="n">
-        <v>1984</v>
+        <v>1928</v>
       </c>
       <c r="C248" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Aladdin</t>
-        </is>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>1992</v>
+        <v>2013</v>
       </c>
       <c r="C249" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>A Silent Voice: The Movie</t>
-        </is>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
       </c>
       <c r="B250" t="n">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="C250" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Tangerines</t>
-        </is>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C251" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>